--- a/CAPS-Workbook/data/Results.xlsx
+++ b/CAPS-Workbook/data/Results.xlsx
@@ -363,7 +363,7 @@
   <dimension ref="B2:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,8 +410,26 @@
       <c r="B3">
         <v>4</v>
       </c>
+      <c r="C3">
+        <v>11.988</v>
+      </c>
+      <c r="D3">
+        <v>3.3109999999999999</v>
+      </c>
+      <c r="E3">
+        <v>3.0259999999999998</v>
+      </c>
       <c r="G3">
-        <v>1024</v>
+        <v>128</v>
+      </c>
+      <c r="H3">
+        <v>0.192</v>
+      </c>
+      <c r="I3">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="J3">
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="L3">
         <v>9</v>
@@ -421,8 +439,26 @@
       <c r="B4">
         <v>16</v>
       </c>
+      <c r="C4">
+        <v>47.262</v>
+      </c>
+      <c r="D4">
+        <v>12.625</v>
+      </c>
+      <c r="E4">
+        <v>11.545</v>
+      </c>
       <c r="G4">
-        <v>2048</v>
+        <v>256</v>
+      </c>
+      <c r="H4">
+        <v>0.754</v>
+      </c>
+      <c r="I4">
+        <v>0.23</v>
+      </c>
+      <c r="J4">
+        <v>0.20200000000000001</v>
       </c>
       <c r="L4">
         <v>18</v>
@@ -432,8 +468,26 @@
       <c r="B5">
         <v>64</v>
       </c>
+      <c r="C5">
+        <v>193.98400000000001</v>
+      </c>
+      <c r="D5">
+        <v>49.929000000000002</v>
+      </c>
+      <c r="E5">
+        <v>45.808</v>
+      </c>
       <c r="G5">
-        <v>4096</v>
+        <v>512</v>
+      </c>
+      <c r="H5">
+        <v>3.036</v>
+      </c>
+      <c r="I5">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="J5">
+        <v>0.76500000000000001</v>
       </c>
       <c r="L5">
         <v>27</v>
@@ -443,8 +497,26 @@
       <c r="B6">
         <v>256</v>
       </c>
+      <c r="C6">
+        <v>754.93799999999999</v>
+      </c>
+      <c r="D6">
+        <v>199.29</v>
+      </c>
+      <c r="E6">
+        <v>181.72399999999999</v>
+      </c>
       <c r="G6">
-        <v>8192</v>
+        <v>1024</v>
+      </c>
+      <c r="H6">
+        <v>11.988</v>
+      </c>
+      <c r="I6">
+        <v>3.3109999999999999</v>
+      </c>
+      <c r="J6">
+        <v>3.0259999999999998</v>
       </c>
       <c r="L6">
         <v>36</v>
@@ -454,8 +526,23 @@
       <c r="B7">
         <v>1024</v>
       </c>
-      <c r="G7" s="1">
-        <v>16384</v>
+      <c r="D7">
+        <v>791.62</v>
+      </c>
+      <c r="E7">
+        <v>727.15499999999997</v>
+      </c>
+      <c r="G7">
+        <v>2048</v>
+      </c>
+      <c r="H7">
+        <v>49.354999999999997</v>
+      </c>
+      <c r="I7">
+        <v>13.138999999999999</v>
+      </c>
+      <c r="J7">
+        <v>12.002000000000001</v>
       </c>
       <c r="L7" s="1">
         <v>45</v>
@@ -466,7 +553,16 @@
         <v>4096</v>
       </c>
       <c r="G8">
-        <v>32768</v>
+        <v>4096</v>
+      </c>
+      <c r="H8">
+        <v>194.98</v>
+      </c>
+      <c r="I8">
+        <v>51.92</v>
+      </c>
+      <c r="J8">
+        <v>47.831000000000003</v>
       </c>
       <c r="L8">
         <v>54</v>

--- a/CAPS-Workbook/data/Results.xlsx
+++ b/CAPS-Workbook/data/Results.xlsx
@@ -363,7 +363,7 @@
   <dimension ref="B2:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CAPS-Workbook/data/Results.xlsx
+++ b/CAPS-Workbook/data/Results.xlsx
@@ -13,6 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="4" r:id="rId2"/>
+    <sheet name="Chart2" sheetId="5" r:id="rId3"/>
+    <sheet name="Chart3" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Samples</t>
   </si>
@@ -41,7 +44,16 @@
     <t>Size</t>
   </si>
   <si>
-    <t>Spheres</t>
+    <t>omp speedup</t>
+  </si>
+  <si>
+    <t>custom speedup</t>
+  </si>
+  <si>
+    <t>omp efficiency</t>
+  </si>
+  <si>
+    <t>custom efficiency</t>
   </si>
 </sst>
 </file>
@@ -95,6 +107,3607 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Base</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Algorithm</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11.988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.262</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>193.98400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>754.93799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3007.38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12047</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-81B8-4F9B-A728-F98FD255FB24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="475837440"/>
+        <c:axId val="475843672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="475837440"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of Samples</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475843672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="475843672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time Taken(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475837440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Samples</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Size Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Base</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11.988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.262</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>193.98400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>754.93799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3007.38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12047</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C9C-4F68-8012-FB9ADB2061EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Omp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.3109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.929000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>199.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>791.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3165.0450000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5C9C-4F68-8012-FB9ADB2061EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Custom</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.0259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>181.72399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>727.15499999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2910.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5C9C-4F68-8012-FB9ADB2061EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="478904560"/>
+        <c:axId val="478904888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="478904560"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Samples</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478904888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="478904888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t>(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478904560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Resolution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Base</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$11:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.354999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>194.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9043-45CF-86B3-4742CCEB26C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Omp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$11:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.138999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9043-45CF-86B3-4742CCEB26C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Custom</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$11:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.002000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.831000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9043-45CF-86B3-4742CCEB26C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="516560008"/>
+        <c:axId val="516560992"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="516560008"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="128"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Resolution</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516560992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="516560992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516560008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="115" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8669364" cy="6288114"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8669364" cy="6288114"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8669364" cy="6288114"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -360,15 +3973,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O8"/>
+  <dimension ref="B2:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -382,31 +4000,19 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>4</v>
       </c>
@@ -420,22 +4026,23 @@
         <v>3.0259999999999998</v>
       </c>
       <c r="G3">
-        <v>128</v>
+        <f>C3/D3</f>
+        <v>3.6206584113560858</v>
       </c>
       <c r="H3">
-        <v>0.192</v>
+        <f>G3/4</f>
+        <v>0.90516460283902145</v>
       </c>
       <c r="I3">
-        <v>6.0999999999999999E-2</v>
+        <f>C3/E3</f>
+        <v>3.9616655651024457</v>
       </c>
       <c r="J3">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="L3">
-        <v>9</v>
+        <f>I3/4</f>
+        <v>0.99041639127561143</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>16</v>
       </c>
@@ -449,22 +4056,23 @@
         <v>11.545</v>
       </c>
       <c r="G4">
-        <v>256</v>
+        <f t="shared" ref="G4:G17" si="0">C4/D4</f>
+        <v>3.7435247524752477</v>
       </c>
       <c r="H4">
-        <v>0.754</v>
+        <f t="shared" ref="H4:H16" si="1">G4/4</f>
+        <v>0.93588118811881194</v>
       </c>
       <c r="I4">
-        <v>0.23</v>
+        <f t="shared" ref="I4:I16" si="2">C4/E4</f>
+        <v>4.0937202252057165</v>
       </c>
       <c r="J4">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="L4">
-        <v>18</v>
+        <f t="shared" ref="J4:J16" si="3">I4/4</f>
+        <v>1.0234300563014291</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>64</v>
       </c>
@@ -478,22 +4086,23 @@
         <v>45.808</v>
       </c>
       <c r="G5">
-        <v>512</v>
+        <f t="shared" si="0"/>
+        <v>3.88519697971119</v>
       </c>
       <c r="H5">
-        <v>3.036</v>
+        <f t="shared" si="1"/>
+        <v>0.97129924492779751</v>
       </c>
       <c r="I5">
-        <v>0.85299999999999998</v>
+        <f t="shared" si="2"/>
+        <v>4.2347188264058682</v>
       </c>
       <c r="J5">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="L5">
-        <v>27</v>
+        <f t="shared" si="3"/>
+        <v>1.058679706601467</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>256</v>
       </c>
@@ -507,25 +4116,29 @@
         <v>181.72399999999999</v>
       </c>
       <c r="G6">
-        <v>1024</v>
+        <f t="shared" si="0"/>
+        <v>3.7881378895077527</v>
       </c>
       <c r="H6">
-        <v>11.988</v>
+        <f t="shared" si="1"/>
+        <v>0.94703447237693816</v>
       </c>
       <c r="I6">
-        <v>3.3109999999999999</v>
+        <f t="shared" si="2"/>
+        <v>4.1543109330633268</v>
       </c>
       <c r="J6">
-        <v>3.0259999999999998</v>
-      </c>
-      <c r="L6">
-        <v>36</v>
+        <f t="shared" si="3"/>
+        <v>1.0385777332658317</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1024</v>
       </c>
+      <c r="C7">
+        <v>3007.38</v>
+      </c>
       <c r="D7">
         <v>791.62</v>
       </c>
@@ -533,39 +4146,245 @@
         <v>727.15499999999997</v>
       </c>
       <c r="G7">
-        <v>2048</v>
+        <f t="shared" si="0"/>
+        <v>3.7990197316894472</v>
       </c>
       <c r="H7">
-        <v>49.354999999999997</v>
+        <f t="shared" si="1"/>
+        <v>0.94975493292236179</v>
       </c>
       <c r="I7">
-        <v>13.138999999999999</v>
+        <f t="shared" si="2"/>
+        <v>4.1358169853745075</v>
       </c>
       <c r="J7">
-        <v>12.002000000000001</v>
-      </c>
-      <c r="L7" s="1">
-        <v>45</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>1.0339542463436269</v>
+      </c>
+      <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>4096</v>
       </c>
+      <c r="C8">
+        <v>12047</v>
+      </c>
+      <c r="D8">
+        <v>3165.0450000000001</v>
+      </c>
+      <c r="E8">
+        <v>2910.375</v>
+      </c>
       <c r="G8">
+        <f t="shared" si="0"/>
+        <v>3.8062649978120375</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0.95156624945300938</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>4.1393291242537478</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>1.0348322810634369</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>128</v>
+      </c>
+      <c r="C11">
+        <v>0.192</v>
+      </c>
+      <c r="D11">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E11">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>3.1475409836065573</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0.78688524590163933</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>3.2542372881355934</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>0.81355932203389836</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>256</v>
+      </c>
+      <c r="C12">
+        <v>0.754</v>
+      </c>
+      <c r="D12">
+        <v>0.23</v>
+      </c>
+      <c r="E12">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>3.2782608695652171</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0.81956521739130428</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>3.7326732673267324</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>0.93316831683168311</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>512</v>
+      </c>
+      <c r="C13">
+        <v>3.036</v>
+      </c>
+      <c r="D13">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="E13">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>3.5592028135990623</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0.88980070339976558</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>3.9686274509803923</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0.99215686274509807</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1024</v>
+      </c>
+      <c r="C14">
+        <v>11.988</v>
+      </c>
+      <c r="D14">
+        <v>3.3109999999999999</v>
+      </c>
+      <c r="E14">
+        <v>3.0259999999999998</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>3.6206584113560858</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0.90516460283902145</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>3.9616655651024457</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>0.99041639127561143</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>2048</v>
+      </c>
+      <c r="C15">
+        <v>49.354999999999997</v>
+      </c>
+      <c r="D15">
+        <v>13.138999999999999</v>
+      </c>
+      <c r="E15">
+        <v>12.002000000000001</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>3.7563741532841157</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0.93909353832102893</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>4.1122312947842019</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>1.0280578236960505</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>4096</v>
       </c>
-      <c r="H8">
+      <c r="C16">
         <v>194.98</v>
       </c>
-      <c r="I8">
+      <c r="D16">
         <v>51.92</v>
       </c>
-      <c r="J8">
+      <c r="E16">
         <v>47.831000000000003</v>
       </c>
-      <c r="L8">
-        <v>54</v>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>3.7553929121725727</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0.93884822804314316</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>4.0764357843239738</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>1.0191089460809934</v>
       </c>
     </row>
   </sheetData>

--- a/CAPS-Workbook/data/Results.xlsx
+++ b/CAPS-Workbook/data/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,36 +187,23 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -247,7 +234,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -276,7 +262,7 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$3:$B$8</c:f>
               <c:numCache>
@@ -302,8 +288,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$3:$C$8</c:f>
               <c:numCache>
@@ -329,8 +315,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-81B8-4F9B-A728-F98FD255FB24}"/>
@@ -338,7 +323,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -346,18 +330,31 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="475837440"/>
         <c:axId val="475843672"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:barChart>
+      <c:catAx>
         <c:axId val="475837440"/>
         <c:scaling>
-          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
-          <c:min val="4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -457,12 +454,17 @@
         </c:txPr>
         <c:crossAx val="475843672"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="475843672"/>
         <c:scaling>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
+          <c:min val="8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -575,7 +577,7 @@
         </c:txPr>
         <c:crossAx val="475837440"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -689,8 +691,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -699,30 +702,18 @@
             <c:v>Base</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$3:$B$8</c:f>
               <c:numCache>
@@ -748,8 +739,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$3:$C$8</c:f>
               <c:numCache>
@@ -775,8 +766,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5C9C-4F68-8012-FB9ADB2061EB}"/>
@@ -790,30 +780,18 @@
             <c:v>Omp</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$3:$B$8</c:f>
               <c:numCache>
@@ -839,8 +817,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Sheet1!$D$3:$D$8</c:f>
               <c:numCache>
@@ -866,8 +844,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5C9C-4F68-8012-FB9ADB2061EB}"/>
@@ -881,30 +858,18 @@
             <c:v>Custom</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$3:$B$8</c:f>
               <c:numCache>
@@ -930,8 +895,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$3:$E$8</c:f>
               <c:numCache>
@@ -957,8 +922,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5C9C-4F68-8012-FB9ADB2061EB}"/>
@@ -966,7 +930,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -974,15 +937,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="478904560"/>
         <c:axId val="478904888"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:barChart>
+      <c:catAx>
         <c:axId val="478904560"/>
         <c:scaling>
-          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
-          <c:min val="4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1081,12 +1043,15 @@
         </c:txPr>
         <c:crossAx val="478904888"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="4"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="478904888"/>
         <c:scaling>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1204,7 +1169,7 @@
         </c:txPr>
         <c:crossAx val="478904560"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1350,8 +1315,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1360,30 +1326,18 @@
             <c:v>Base</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$11:$B$16</c:f>
               <c:numCache>
@@ -1409,8 +1363,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$11:$C$16</c:f>
               <c:numCache>
@@ -1436,8 +1390,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9043-45CF-86B3-4742CCEB26C8}"/>
@@ -1451,30 +1404,18 @@
             <c:v>Omp</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$11:$B$16</c:f>
               <c:numCache>
@@ -1500,8 +1441,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Sheet1!$D$11:$D$16</c:f>
               <c:numCache>
@@ -1527,8 +1468,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9043-45CF-86B3-4742CCEB26C8}"/>
@@ -1542,30 +1482,18 @@
             <c:v>Custom</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$11:$B$16</c:f>
               <c:numCache>
@@ -1591,8 +1519,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$11:$E$16</c:f>
               <c:numCache>
@@ -1618,8 +1546,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9043-45CF-86B3-4742CCEB26C8}"/>
@@ -1634,15 +1561,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="516560008"/>
         <c:axId val="516560992"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:barChart>
+      <c:catAx>
         <c:axId val="516560008"/>
         <c:scaling>
-          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
-          <c:min val="128"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1702,7 +1628,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1741,11 +1667,15 @@
         </c:txPr>
         <c:crossAx val="516560992"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="516560992"/>
         <c:scaling>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1859,7 +1789,8 @@
         </c:txPr>
         <c:crossAx val="516560008"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3600,7 +3531,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3660,7 +3591,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669364" cy="6288114"/>
+    <xdr:ext cx="8663609" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3975,8 +3906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4056,7 +3987,7 @@
         <v>11.545</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G17" si="0">C4/D4</f>
+        <f t="shared" ref="G4:G16" si="0">C4/D4</f>
         <v>3.7435247524752477</v>
       </c>
       <c r="H4">
